--- a/HassCatalog.xlsx
+++ b/HassCatalog.xlsx
@@ -149,7 +149,7 @@
     <t>Жакеты и жилеты</t>
   </si>
   <si>
-    <t>Трикотаж - кардиганы, джемперы и свитшеты</t>
+    <t>Трикотаж</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
